--- a/BackTest/2020-01-12 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-12 BackTest QTUM.xlsx
@@ -451,3442 +451,3056 @@
         <v>1927.983333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1935</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1937</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1938</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1934</v>
+      </c>
+      <c r="F3" t="n">
+        <v>422.5908</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1928.25</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1933</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1934</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1935</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1932</v>
+      </c>
+      <c r="F4" t="n">
+        <v>196.4481</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1928.416666666667</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1937</v>
+      </c>
+      <c r="C5" t="n">
         <v>1940</v>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
+      <c r="D5" t="n">
+        <v>1940</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1937</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1285.6503</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1928.583333333333</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1939</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1939</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1939</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1939</v>
+      </c>
+      <c r="F6" t="n">
+        <v>475</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1928.766666666667</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1936</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1937</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1937</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1936</v>
+      </c>
+      <c r="F7" t="n">
+        <v>117.9009</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1928.916666666667</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1936</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1936</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1936</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1936</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10.7434</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1929.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1936</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1936</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1936</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1936</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10.7411</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1929.333333333333</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1935</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1935</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1935</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1935</v>
+      </c>
+      <c r="F10" t="n">
+        <v>491.9242</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1929.55</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1932</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1932</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1932</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1932</v>
+      </c>
+      <c r="F11" t="n">
+        <v>254.2359</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1929.733333333333</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1934</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1933</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1934</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1933</v>
+      </c>
+      <c r="F12" t="n">
+        <v>392.6584</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1929.816666666667</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1942</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1940</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1945</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1940</v>
+      </c>
+      <c r="F13" t="n">
+        <v>373.6436</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1929.883333333333</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1941</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1941</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1941</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1941</v>
+      </c>
+      <c r="F14" t="n">
+        <v>183.2068</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1929.95</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1941</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1941</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1942</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1941</v>
+      </c>
+      <c r="F15" t="n">
+        <v>227.9856</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1929.816666666667</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1942</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1943</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1943</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1942</v>
+      </c>
+      <c r="F16" t="n">
+        <v>538.2708</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1929.866666666667</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1942</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1939</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1942</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1939</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2173.7178</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1929.833333333333</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1941</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1941</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1941</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1941</v>
+      </c>
+      <c r="F18" t="n">
+        <v>13.3925</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1929.833333333333</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1941</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1941</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1941</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1941</v>
+      </c>
+      <c r="F19" t="n">
+        <v>111.3344</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1929.833333333333</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1950</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1950</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1944</v>
+      </c>
+      <c r="F20" t="n">
+        <v>135.9192</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1929.983333333333</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1949</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1950</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1949</v>
+      </c>
+      <c r="F21" t="n">
+        <v>401.9641</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1930.116666666667</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1945</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1951</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1945</v>
+      </c>
+      <c r="F22" t="n">
+        <v>293.4329</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1930.183333333333</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1945</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1945</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1945</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1945</v>
+      </c>
+      <c r="F23" t="n">
+        <v>694</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1930.366666666667</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1947</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1947</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1947</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1947</v>
+      </c>
+      <c r="F24" t="n">
+        <v>250</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1930.716666666667</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1949</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1949</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1949</v>
+      </c>
+      <c r="F25" t="n">
+        <v>200</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1931.1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1946</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1946</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1946</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1946</v>
+      </c>
+      <c r="F26" t="n">
+        <v>433.4956</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1931.433333333333</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1942</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1942</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1942</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1942</v>
+      </c>
+      <c r="F27" t="n">
+        <v>44.31</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1931.8</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1941</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1941</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1941</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1941</v>
+      </c>
+      <c r="F28" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1932.15</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1946</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1946</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1946</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1945</v>
+      </c>
+      <c r="F29" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1932.666666666667</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1943</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1949</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1949</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1943</v>
+      </c>
+      <c r="F30" t="n">
+        <v>319.9</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1933.166666666667</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1947</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1950</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1950</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1947</v>
+      </c>
+      <c r="F31" t="n">
+        <v>811.4944</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1933.733333333333</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1950</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1950</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1950</v>
+      </c>
+      <c r="F32" t="n">
+        <v>11.3687</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1934.45</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1947</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1947</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1947</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1947</v>
+      </c>
+      <c r="F33" t="n">
+        <v>129.9763</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1935.066666666667</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1947</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1947</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1947</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1947</v>
+      </c>
+      <c r="F34" t="n">
+        <v>743.4400000000001</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1935.666666666667</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1947</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1949</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1947</v>
+      </c>
+      <c r="F35" t="n">
+        <v>166.6412</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1936.316666666667</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1948</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1947</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1948</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1947</v>
+      </c>
+      <c r="F36" t="n">
+        <v>87.23999999999999</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1937</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1948</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1948</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1948</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1948</v>
+      </c>
+      <c r="F37" t="n">
+        <v>206.2</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1937.666666666667</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1955</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1955</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1949</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1032.8452</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1938.45</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1951</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1949</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1951</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1949</v>
+      </c>
+      <c r="F39" t="n">
+        <v>947.5691</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1939</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1951</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1951</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1951</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1951</v>
+      </c>
+      <c r="F40" t="n">
+        <v>259.632</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1939.666666666667</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1955</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1958</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1958</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1955</v>
+      </c>
+      <c r="F41" t="n">
+        <v>451.2784</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1940.433333333333</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1958</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1958</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1958</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1958</v>
+      </c>
+      <c r="F42" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1941.116666666667</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1957</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1957</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1958</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1957</v>
+      </c>
+      <c r="F43" t="n">
+        <v>183.5731</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1941.65</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1958</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1958</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1958</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1958</v>
+      </c>
+      <c r="F44" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1942.133333333333</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1951</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1951</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1951</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1951</v>
+      </c>
+      <c r="F45" t="n">
+        <v>74.92</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1942.383333333333</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1951</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1950</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1951</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1950</v>
+      </c>
+      <c r="F46" t="n">
+        <v>171.739</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1942.616666666667</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1951</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1951</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1951</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1951</v>
+      </c>
+      <c r="F47" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1942.866666666667</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1946</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1946</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1946</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1946</v>
+      </c>
+      <c r="F48" t="n">
+        <v>438.6</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1942.95</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1936</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1933</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1940</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1933</v>
+      </c>
+      <c r="F49" t="n">
+        <v>48.533</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1942.833333333333</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1938</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1938</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1938</v>
+      </c>
+      <c r="F50" t="n">
+        <v>18.3563</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1942.716666666667</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1938</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1938</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1938</v>
+      </c>
+      <c r="F51" t="n">
+        <v>18.3552</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1942.866666666667</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1946</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1946</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1944</v>
+      </c>
+      <c r="F52" t="n">
+        <v>257.09064748</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1943.066666666667</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1943</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1943</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1948</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1943</v>
+      </c>
+      <c r="F53" t="n">
+        <v>230.5143</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1943.166666666667</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1943</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1943</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1943</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1943</v>
+      </c>
+      <c r="F54" t="n">
+        <v>102.8278</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1943.233333333333</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1943</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1943</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1943</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1943</v>
+      </c>
+      <c r="F55" t="n">
+        <v>78.982</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1943.3</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1942</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1942</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1942</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1942</v>
+      </c>
+      <c r="F56" t="n">
+        <v>28.8357</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1943.35</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1946</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1946</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1946</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1946</v>
+      </c>
+      <c r="F57" t="n">
+        <v>5.149</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1943.466666666667</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1943</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1938</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1943</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1938</v>
+      </c>
+      <c r="F58" t="n">
+        <v>204.8733</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1943.516666666667</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1939</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1940</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1942</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1939</v>
+      </c>
+      <c r="F59" t="n">
+        <v>403.6</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1943.683333333333</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1941</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1941</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1941</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1941</v>
+      </c>
+      <c r="F60" t="n">
+        <v>174.9479</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1943.916666666667</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1941</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1943</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1943</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1941</v>
+      </c>
+      <c r="F61" t="n">
+        <v>420.9521</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1943.983333333333</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1943</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1941</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1945</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1941</v>
+      </c>
+      <c r="F62" t="n">
+        <v>467.2168</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1944.15</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1942</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1942</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1942</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1942</v>
+      </c>
+      <c r="F63" t="n">
+        <v>200</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1944.233333333333</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1944</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1944</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1944</v>
+      </c>
+      <c r="F64" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1944.4</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1943</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1943</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1943</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1943</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2165.3456</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1944.45</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1939</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1937</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1939</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1933</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1003.3207</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1944.416666666667</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1937</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1937</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1937</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1937</v>
+      </c>
+      <c r="F67" t="n">
+        <v>22.1702</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1944.416666666667</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1939</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1937</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1939</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1937</v>
+      </c>
+      <c r="F68" t="n">
+        <v>482.6364</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1944.433333333333</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1938</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1938</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1938</v>
+      </c>
+      <c r="F69" t="n">
+        <v>4.069</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1944.466666666667</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1938</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1938</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1938</v>
+      </c>
+      <c r="F70" t="n">
+        <v>24.0312</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1944.516666666667</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1934</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1933</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1934</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1933</v>
+      </c>
+      <c r="F71" t="n">
+        <v>128.8746</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1944.533333333333</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1934</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1935</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1935</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1934</v>
+      </c>
+      <c r="F72" t="n">
+        <v>226</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1944.566666666667</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1935</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1935</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1935</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1935</v>
+      </c>
+      <c r="F73" t="n">
+        <v>99.9999</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1944.483333333333</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1935</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1936</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1936</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1935</v>
+      </c>
+      <c r="F74" t="n">
+        <v>99.9999</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1944.4</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1934</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1934</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1934</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1934</v>
+      </c>
+      <c r="F75" t="n">
+        <v>58.4967</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1944.283333333333</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1936</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1940</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1940</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1936</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1028.89646479</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1944.233333333333</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1934</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1934</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1934</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1934</v>
+      </c>
+      <c r="F77" t="n">
+        <v>42.8333</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1944.15</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1933</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1933</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1933</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1933</v>
+      </c>
+      <c r="F78" t="n">
+        <v>41.278</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1944.016666666667</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1933</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1933</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1933</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1933</v>
+      </c>
+      <c r="F79" t="n">
+        <v>76.34739999999999</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1943.883333333333</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1930</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1930</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1930</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1930</v>
+      </c>
+      <c r="F80" t="n">
+        <v>23.1564</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1943.55</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1932</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1932</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1932</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1932</v>
+      </c>
+      <c r="F81" t="n">
+        <v>100</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1943.266666666667</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1933</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1931</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1933</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1931</v>
+      </c>
+      <c r="F82" t="n">
+        <v>200</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1943.033333333333</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1933</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1930</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1933</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1930</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1298.5914</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1942.783333333333</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1932</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1931</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1932</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1931</v>
+      </c>
+      <c r="F84" t="n">
+        <v>122.6</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1942.516666666667</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1930</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1930</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1935</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1935</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1935</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1935</v>
+      </c>
+      <c r="F85" t="n">
+        <v>3.2379</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1942.283333333333</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1931</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1930</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1935</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1935</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1935</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1935</v>
+      </c>
+      <c r="F86" t="n">
+        <v>20</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1942.1</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1935</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1930</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1938</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1938</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1938</v>
+      </c>
+      <c r="F87" t="n">
+        <v>202.1246</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1942.033333333333</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1935</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1935</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1937</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1934</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1937</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1919</v>
+      </c>
+      <c r="F88" t="n">
+        <v>10446.3329</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1941.916666666667</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1938</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1935</v>
+      </c>
+      <c r="L88" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1935</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1937</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1938</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1934</v>
-      </c>
-      <c r="F3" t="n">
-        <v>422.5908</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1928.25</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1933</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1934</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1935</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1932</v>
-      </c>
-      <c r="F4" t="n">
-        <v>196.4481</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1928.416666666667</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1933</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1937</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1940</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1940</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1937</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1285.6503</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1928.583333333333</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1937</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1939</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1939</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1939</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1939</v>
-      </c>
-      <c r="F6" t="n">
-        <v>475</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1928.766666666667</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1939</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1936</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1937</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1937</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1936</v>
-      </c>
-      <c r="F7" t="n">
-        <v>117.9009</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1928.916666666667</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1936</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1936</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1936</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1936</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1936</v>
-      </c>
-      <c r="F8" t="n">
-        <v>10.7434</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1929.1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1936</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1936</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1936</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1936</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1936</v>
-      </c>
-      <c r="F9" t="n">
-        <v>10.7411</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1929.333333333333</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1936</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1935</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1935</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1935</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1935</v>
-      </c>
-      <c r="F10" t="n">
-        <v>491.9242</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1929.55</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1935</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1932</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1932</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1932</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1932</v>
-      </c>
-      <c r="F11" t="n">
-        <v>254.2359</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1929.733333333333</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1932</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1934</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1933</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1934</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1933</v>
-      </c>
-      <c r="F12" t="n">
-        <v>392.6584</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1929.816666666667</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1934</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1942</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1940</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1945</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1940</v>
-      </c>
-      <c r="F13" t="n">
-        <v>373.6436</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1929.883333333333</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1941</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1941</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1941</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1941</v>
-      </c>
-      <c r="F14" t="n">
-        <v>183.2068</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1929.95</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1941</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1941</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1941</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1942</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1941</v>
-      </c>
-      <c r="F15" t="n">
-        <v>227.9856</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1929.816666666667</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1941</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1942</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1943</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1943</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1942</v>
-      </c>
-      <c r="F16" t="n">
-        <v>538.2708</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1929.866666666667</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1942</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1939</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1942</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1939</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2173.7178</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1929.833333333333</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1942</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1941</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1941</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1941</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1941</v>
-      </c>
-      <c r="F18" t="n">
-        <v>13.3925</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1929.833333333333</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1941</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1941</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1941</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1941</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1941</v>
-      </c>
-      <c r="F19" t="n">
-        <v>111.3344</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1929.833333333333</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1941</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1944</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1950</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1950</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1944</v>
-      </c>
-      <c r="F20" t="n">
-        <v>135.9192</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1929.983333333333</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1944</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1950</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1949</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1950</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1949</v>
-      </c>
-      <c r="F21" t="n">
-        <v>401.9641</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1930.116666666667</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1950</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1950</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1945</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1951</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1945</v>
-      </c>
-      <c r="F22" t="n">
-        <v>293.4329</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1930.183333333333</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1945</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1945</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1945</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1945</v>
-      </c>
-      <c r="F23" t="n">
-        <v>694</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1930.366666666667</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1947</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1947</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1947</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1947</v>
-      </c>
-      <c r="F24" t="n">
-        <v>250</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1930.716666666667</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1949</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1949</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1949</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1949</v>
-      </c>
-      <c r="F25" t="n">
-        <v>200</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1931.1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1946</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1946</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1946</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1946</v>
-      </c>
-      <c r="F26" t="n">
-        <v>433.4956</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1931.433333333333</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>1942</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1942</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1942</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1942</v>
-      </c>
-      <c r="F27" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1931.8</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>1941</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1941</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1941</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1941</v>
-      </c>
-      <c r="F28" t="n">
-        <v>82.2</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1932.15</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>1946</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1946</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1946</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1945</v>
-      </c>
-      <c r="F29" t="n">
-        <v>187.8</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1932.666666666667</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>1943</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1949</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1949</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1943</v>
-      </c>
-      <c r="F30" t="n">
-        <v>319.9</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1933.166666666667</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1947</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1950</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1950</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1947</v>
-      </c>
-      <c r="F31" t="n">
-        <v>811.4944</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1933.733333333333</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>1950</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1950</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1950</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1950</v>
-      </c>
-      <c r="F32" t="n">
-        <v>11.3687</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1934.45</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>1947</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1947</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1947</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1947</v>
-      </c>
-      <c r="F33" t="n">
-        <v>129.9763</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1935.066666666667</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>1947</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1947</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1947</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1947</v>
-      </c>
-      <c r="F34" t="n">
-        <v>743.4400000000001</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1935.666666666667</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>1949</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1947</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1949</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1947</v>
-      </c>
-      <c r="F35" t="n">
-        <v>166.6412</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1936.316666666667</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>1948</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1947</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1948</v>
-      </c>
-      <c r="E36" t="n">
-        <v>1947</v>
-      </c>
-      <c r="F36" t="n">
-        <v>87.23999999999999</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1937</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>1948</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1948</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1948</v>
-      </c>
-      <c r="E37" t="n">
-        <v>1948</v>
-      </c>
-      <c r="F37" t="n">
-        <v>206.2</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1937.666666666667</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1949</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1955</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1955</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1949</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1032.8452</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1938.45</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>1951</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1949</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1951</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1949</v>
-      </c>
-      <c r="F39" t="n">
-        <v>947.5691</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1939</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>1951</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1951</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1951</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1951</v>
-      </c>
-      <c r="F40" t="n">
-        <v>259.632</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1939.666666666667</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>1955</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1958</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1958</v>
-      </c>
-      <c r="E41" t="n">
-        <v>1955</v>
-      </c>
-      <c r="F41" t="n">
-        <v>451.2784</v>
-      </c>
-      <c r="G41" t="n">
-        <v>1940.433333333333</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>1958</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1958</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1958</v>
-      </c>
-      <c r="E42" t="n">
-        <v>1958</v>
-      </c>
-      <c r="F42" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1941.116666666667</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>1957</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1957</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1958</v>
-      </c>
-      <c r="E43" t="n">
-        <v>1957</v>
-      </c>
-      <c r="F43" t="n">
-        <v>183.5731</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1941.65</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>1958</v>
-      </c>
-      <c r="C44" t="n">
-        <v>1958</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1958</v>
-      </c>
-      <c r="E44" t="n">
-        <v>1958</v>
-      </c>
-      <c r="F44" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1942.133333333333</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1951</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1951</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1951</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1951</v>
-      </c>
-      <c r="F45" t="n">
-        <v>74.92</v>
-      </c>
-      <c r="G45" t="n">
-        <v>1942.383333333333</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>1951</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1950</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1951</v>
-      </c>
-      <c r="E46" t="n">
-        <v>1950</v>
-      </c>
-      <c r="F46" t="n">
-        <v>171.739</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1942.616666666667</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>1951</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1951</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1951</v>
-      </c>
-      <c r="E47" t="n">
-        <v>1951</v>
-      </c>
-      <c r="F47" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1942.866666666667</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>1946</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1946</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1946</v>
-      </c>
-      <c r="E48" t="n">
-        <v>1946</v>
-      </c>
-      <c r="F48" t="n">
-        <v>438.6</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1942.95</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>1936</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1933</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1940</v>
-      </c>
-      <c r="E49" t="n">
-        <v>1933</v>
-      </c>
-      <c r="F49" t="n">
-        <v>48.533</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1942.833333333333</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>1938</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1938</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1938</v>
-      </c>
-      <c r="E50" t="n">
-        <v>1938</v>
-      </c>
-      <c r="F50" t="n">
-        <v>18.3563</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1942.716666666667</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>1938</v>
-      </c>
-      <c r="C51" t="n">
-        <v>1938</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1938</v>
-      </c>
-      <c r="E51" t="n">
-        <v>1938</v>
-      </c>
-      <c r="F51" t="n">
-        <v>18.3552</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1942.866666666667</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>1944</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1946</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1946</v>
-      </c>
-      <c r="E52" t="n">
-        <v>1944</v>
-      </c>
-      <c r="F52" t="n">
-        <v>257.09064748</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1943.066666666667</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>1943</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1943</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1948</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1943</v>
-      </c>
-      <c r="F53" t="n">
-        <v>230.5143</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1943.166666666667</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>1943</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1943</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1943</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1943</v>
-      </c>
-      <c r="F54" t="n">
-        <v>102.8278</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1943.233333333333</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>1943</v>
-      </c>
-      <c r="C55" t="n">
-        <v>1943</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1943</v>
-      </c>
-      <c r="E55" t="n">
-        <v>1943</v>
-      </c>
-      <c r="F55" t="n">
-        <v>78.982</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1943.3</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>1942</v>
-      </c>
-      <c r="C56" t="n">
-        <v>1942</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1942</v>
-      </c>
-      <c r="E56" t="n">
-        <v>1942</v>
-      </c>
-      <c r="F56" t="n">
-        <v>28.8357</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1943.35</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>1946</v>
-      </c>
-      <c r="C57" t="n">
-        <v>1946</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1946</v>
-      </c>
-      <c r="E57" t="n">
-        <v>1946</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5.149</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1943.466666666667</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>1943</v>
-      </c>
-      <c r="C58" t="n">
-        <v>1938</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1943</v>
-      </c>
-      <c r="E58" t="n">
-        <v>1938</v>
-      </c>
-      <c r="F58" t="n">
-        <v>204.8733</v>
-      </c>
-      <c r="G58" t="n">
-        <v>1943.516666666667</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>1939</v>
-      </c>
-      <c r="C59" t="n">
-        <v>1940</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1942</v>
-      </c>
-      <c r="E59" t="n">
-        <v>1939</v>
-      </c>
-      <c r="F59" t="n">
-        <v>403.6</v>
-      </c>
-      <c r="G59" t="n">
-        <v>1943.683333333333</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>1941</v>
-      </c>
-      <c r="C60" t="n">
-        <v>1941</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1941</v>
-      </c>
-      <c r="E60" t="n">
-        <v>1941</v>
-      </c>
-      <c r="F60" t="n">
-        <v>174.9479</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1943.916666666667</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>1941</v>
-      </c>
-      <c r="C61" t="n">
-        <v>1943</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1943</v>
-      </c>
-      <c r="E61" t="n">
-        <v>1941</v>
-      </c>
-      <c r="F61" t="n">
-        <v>420.9521</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1943.983333333333</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>1943</v>
-      </c>
-      <c r="C62" t="n">
-        <v>1941</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1945</v>
-      </c>
-      <c r="E62" t="n">
-        <v>1941</v>
-      </c>
-      <c r="F62" t="n">
-        <v>467.2168</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1944.15</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>1942</v>
-      </c>
-      <c r="C63" t="n">
-        <v>1942</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1942</v>
-      </c>
-      <c r="E63" t="n">
-        <v>1942</v>
-      </c>
-      <c r="F63" t="n">
-        <v>200</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1944.233333333333</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>1944</v>
-      </c>
-      <c r="C64" t="n">
-        <v>1944</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1944</v>
-      </c>
-      <c r="E64" t="n">
-        <v>1944</v>
-      </c>
-      <c r="F64" t="n">
-        <v>190.6</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1944.4</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>1943</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1943</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1943</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1943</v>
-      </c>
-      <c r="F65" t="n">
-        <v>2165.3456</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1944.45</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>1939</v>
-      </c>
-      <c r="C66" t="n">
-        <v>1937</v>
-      </c>
-      <c r="D66" t="n">
-        <v>1939</v>
-      </c>
-      <c r="E66" t="n">
-        <v>1933</v>
-      </c>
-      <c r="F66" t="n">
-        <v>1003.3207</v>
-      </c>
-      <c r="G66" t="n">
-        <v>1944.416666666667</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>1937</v>
-      </c>
-      <c r="C67" t="n">
-        <v>1937</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1937</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1937</v>
-      </c>
-      <c r="F67" t="n">
-        <v>22.1702</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1944.416666666667</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>1939</v>
-      </c>
-      <c r="C68" t="n">
-        <v>1937</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1939</v>
-      </c>
-      <c r="E68" t="n">
-        <v>1937</v>
-      </c>
-      <c r="F68" t="n">
-        <v>482.6364</v>
-      </c>
-      <c r="G68" t="n">
-        <v>1944.433333333333</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>1938</v>
-      </c>
-      <c r="C69" t="n">
-        <v>1938</v>
-      </c>
-      <c r="D69" t="n">
-        <v>1938</v>
-      </c>
-      <c r="E69" t="n">
-        <v>1938</v>
-      </c>
-      <c r="F69" t="n">
-        <v>4.069</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1944.466666666667</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>1938</v>
-      </c>
-      <c r="C70" t="n">
-        <v>1938</v>
-      </c>
-      <c r="D70" t="n">
-        <v>1938</v>
-      </c>
-      <c r="E70" t="n">
-        <v>1938</v>
-      </c>
-      <c r="F70" t="n">
-        <v>24.0312</v>
-      </c>
-      <c r="G70" t="n">
-        <v>1944.516666666667</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>1934</v>
-      </c>
-      <c r="C71" t="n">
-        <v>1933</v>
-      </c>
-      <c r="D71" t="n">
-        <v>1934</v>
-      </c>
-      <c r="E71" t="n">
-        <v>1933</v>
-      </c>
-      <c r="F71" t="n">
-        <v>128.8746</v>
-      </c>
-      <c r="G71" t="n">
-        <v>1944.533333333333</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>1934</v>
-      </c>
-      <c r="C72" t="n">
-        <v>1935</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1935</v>
-      </c>
-      <c r="E72" t="n">
-        <v>1934</v>
-      </c>
-      <c r="F72" t="n">
-        <v>226</v>
-      </c>
-      <c r="G72" t="n">
-        <v>1944.566666666667</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>1935</v>
-      </c>
-      <c r="C73" t="n">
-        <v>1935</v>
-      </c>
-      <c r="D73" t="n">
-        <v>1935</v>
-      </c>
-      <c r="E73" t="n">
-        <v>1935</v>
-      </c>
-      <c r="F73" t="n">
-        <v>99.9999</v>
-      </c>
-      <c r="G73" t="n">
-        <v>1944.483333333333</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1935</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>1935</v>
-      </c>
-      <c r="C74" t="n">
-        <v>1936</v>
-      </c>
-      <c r="D74" t="n">
-        <v>1936</v>
-      </c>
-      <c r="E74" t="n">
-        <v>1935</v>
-      </c>
-      <c r="F74" t="n">
-        <v>99.9999</v>
-      </c>
-      <c r="G74" t="n">
-        <v>1944.4</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1935</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>1934</v>
-      </c>
-      <c r="C75" t="n">
-        <v>1934</v>
-      </c>
-      <c r="D75" t="n">
-        <v>1934</v>
-      </c>
-      <c r="E75" t="n">
-        <v>1934</v>
-      </c>
-      <c r="F75" t="n">
-        <v>58.4967</v>
-      </c>
-      <c r="G75" t="n">
-        <v>1944.283333333333</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1934</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>1936</v>
-      </c>
-      <c r="C76" t="n">
-        <v>1940</v>
-      </c>
-      <c r="D76" t="n">
-        <v>1940</v>
-      </c>
-      <c r="E76" t="n">
-        <v>1936</v>
-      </c>
-      <c r="F76" t="n">
-        <v>1028.89646479</v>
-      </c>
-      <c r="G76" t="n">
-        <v>1944.233333333333</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1936</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>1934</v>
-      </c>
-      <c r="C77" t="n">
-        <v>1934</v>
-      </c>
-      <c r="D77" t="n">
-        <v>1934</v>
-      </c>
-      <c r="E77" t="n">
-        <v>1934</v>
-      </c>
-      <c r="F77" t="n">
-        <v>42.8333</v>
-      </c>
-      <c r="G77" t="n">
-        <v>1944.15</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1934</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>1933</v>
-      </c>
-      <c r="C78" t="n">
-        <v>1933</v>
-      </c>
-      <c r="D78" t="n">
-        <v>1933</v>
-      </c>
-      <c r="E78" t="n">
-        <v>1933</v>
-      </c>
-      <c r="F78" t="n">
-        <v>41.278</v>
-      </c>
-      <c r="G78" t="n">
-        <v>1944.016666666667</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1933</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>1933</v>
-      </c>
-      <c r="C79" t="n">
-        <v>1933</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1933</v>
-      </c>
-      <c r="E79" t="n">
-        <v>1933</v>
-      </c>
-      <c r="F79" t="n">
-        <v>76.34739999999999</v>
-      </c>
-      <c r="G79" t="n">
-        <v>1943.883333333333</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>1933</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>1930</v>
-      </c>
-      <c r="C80" t="n">
-        <v>1930</v>
-      </c>
-      <c r="D80" t="n">
-        <v>1930</v>
-      </c>
-      <c r="E80" t="n">
-        <v>1930</v>
-      </c>
-      <c r="F80" t="n">
-        <v>23.1564</v>
-      </c>
-      <c r="G80" t="n">
-        <v>1943.55</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1930</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>1932</v>
-      </c>
-      <c r="C81" t="n">
-        <v>1932</v>
-      </c>
-      <c r="D81" t="n">
-        <v>1932</v>
-      </c>
-      <c r="E81" t="n">
-        <v>1932</v>
-      </c>
-      <c r="F81" t="n">
-        <v>100</v>
-      </c>
-      <c r="G81" t="n">
-        <v>1943.266666666667</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1932</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>1933</v>
-      </c>
-      <c r="C82" t="n">
-        <v>1931</v>
-      </c>
-      <c r="D82" t="n">
-        <v>1933</v>
-      </c>
-      <c r="E82" t="n">
-        <v>1931</v>
-      </c>
-      <c r="F82" t="n">
-        <v>200</v>
-      </c>
-      <c r="G82" t="n">
-        <v>1943.033333333333</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1933</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>1933</v>
-      </c>
-      <c r="C83" t="n">
-        <v>1930</v>
-      </c>
-      <c r="D83" t="n">
-        <v>1933</v>
-      </c>
-      <c r="E83" t="n">
-        <v>1930</v>
-      </c>
-      <c r="F83" t="n">
-        <v>1298.5914</v>
-      </c>
-      <c r="G83" t="n">
-        <v>1942.783333333333</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1933</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>1932</v>
-      </c>
-      <c r="C84" t="n">
-        <v>1931</v>
-      </c>
-      <c r="D84" t="n">
-        <v>1932</v>
-      </c>
-      <c r="E84" t="n">
-        <v>1931</v>
-      </c>
-      <c r="F84" t="n">
-        <v>122.6</v>
-      </c>
-      <c r="G84" t="n">
-        <v>1942.516666666667</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1932</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>1935</v>
-      </c>
-      <c r="C85" t="n">
-        <v>1935</v>
-      </c>
-      <c r="D85" t="n">
-        <v>1935</v>
-      </c>
-      <c r="E85" t="n">
-        <v>1935</v>
-      </c>
-      <c r="F85" t="n">
-        <v>3.2379</v>
-      </c>
-      <c r="G85" t="n">
-        <v>1942.283333333333</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1935</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>1935</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1935</v>
-      </c>
-      <c r="D86" t="n">
-        <v>1935</v>
-      </c>
-      <c r="E86" t="n">
-        <v>1935</v>
-      </c>
-      <c r="F86" t="n">
-        <v>20</v>
-      </c>
-      <c r="G86" t="n">
-        <v>1942.1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1935</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>1938</v>
-      </c>
-      <c r="C87" t="n">
-        <v>1938</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1938</v>
-      </c>
-      <c r="E87" t="n">
-        <v>1938</v>
-      </c>
-      <c r="F87" t="n">
-        <v>202.1246</v>
-      </c>
-      <c r="G87" t="n">
-        <v>1942.033333333333</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>1938</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>1937</v>
-      </c>
-      <c r="C88" t="n">
-        <v>1934</v>
-      </c>
-      <c r="D88" t="n">
-        <v>1937</v>
-      </c>
-      <c r="E88" t="n">
-        <v>1919</v>
-      </c>
-      <c r="F88" t="n">
-        <v>10446.3329</v>
-      </c>
-      <c r="G88" t="n">
-        <v>1941.916666666667</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1937</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3920,9 +3534,11 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
+        <v>1934</v>
+      </c>
+      <c r="K89" t="n">
         <v>1935</v>
       </c>
-      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3961,9 +3577,11 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
+        <v>1933</v>
+      </c>
+      <c r="K90" t="n">
         <v>1935</v>
       </c>
-      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4002,9 +3620,11 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>1931</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
+        <v>1935</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1935</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4043,9 +3663,11 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1931</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
+        <v>1934</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1935</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4078,15 +3700,15 @@
         <v>1940.65</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>1933</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1935</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4125,9 +3747,11 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
+        <v>1933</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1935</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4166,9 +3790,11 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>1931</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
+        <v>1933</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1935</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4201,15 +3827,15 @@
         <v>1939.916666666667</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>1933</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1935</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4242,15 +3868,15 @@
         <v>1939.683333333333</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>1934</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1935</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4283,15 +3909,15 @@
         <v>1939.333333333333</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>1932</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1935</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4324,15 +3950,15 @@
         <v>1939.15</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>1938</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1935</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4365,15 +3991,15 @@
         <v>1938.866666666667</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>1934</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1935</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4406,15 +4032,15 @@
         <v>1938.5</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>1932</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1935</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4447,15 +4073,15 @@
         <v>1938.133333333333</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>1932</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1935</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4488,15 +4114,15 @@
         <v>1937.833333333333</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>1937</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1935</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4529,15 +4155,15 @@
         <v>1937.383333333333</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>1932</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1935</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4570,15 +4196,15 @@
         <v>1937.05</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>1931</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1935</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4611,15 +4237,15 @@
         <v>1936.75</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>1931</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1935</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4652,15 +4278,15 @@
         <v>1936.433333333333</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>1932</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1935</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4693,15 +4319,15 @@
         <v>1936.283333333333</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>1932</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1935</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4734,15 +4360,15 @@
         <v>1936.383333333333</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>1939</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1935</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4775,15 +4401,15 @@
         <v>1936.4</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>1939</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1935</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4816,15 +4442,15 @@
         <v>1936.4</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>1938</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1935</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4857,15 +4483,15 @@
         <v>1936.266666666667</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>1938</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1935</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4898,15 +4524,15 @@
         <v>1936.183333333333</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>1937</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1935</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4939,15 +4565,15 @@
         <v>1936.1</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>1938</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1935</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4980,15 +4606,15 @@
         <v>1936.05</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>1939</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1935</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5021,15 +4647,15 @@
         <v>1936.066666666667</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>1940</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1935</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5062,15 +4688,15 @@
         <v>1936.05</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>1944</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1935</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5103,15 +4729,15 @@
         <v>1936.166666666667</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>1945</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1935</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5144,15 +4770,15 @@
         <v>1936.25</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>1945</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1935</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5191,7 +4817,9 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1935</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5230,7 +4858,9 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1935</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5269,7 +4899,9 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1935</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5308,7 +4940,9 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1935</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5347,7 +4981,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1935</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5386,7 +5022,9 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1935</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5425,7 +5063,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1935</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5464,7 +5104,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1935</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5503,7 +5145,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1935</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5542,7 +5186,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1935</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5581,7 +5227,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1935</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5620,7 +5268,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1935</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5659,7 +5309,9 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1935</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5698,7 +5350,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1935</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5737,7 +5391,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1935</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5776,7 +5432,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1935</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5815,7 +5473,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1935</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5854,7 +5514,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1935</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5893,7 +5555,9 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1935</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5932,7 +5596,9 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1935</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5971,7 +5637,9 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1935</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6010,7 +5678,9 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1935</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6049,7 +5719,9 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1935</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6088,7 +5760,9 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1935</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6127,7 +5801,9 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1935</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6166,7 +5842,9 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1935</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6205,7 +5883,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1935</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6244,7 +5924,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1935</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6277,15 +5959,15 @@
         <v>1941.4</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>1943</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1935</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6318,15 +6000,15 @@
         <v>1941.5</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>1939</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1935</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6365,7 +6047,9 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1935</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6404,7 +6088,9 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1935</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6443,7 +6129,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1935</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6482,7 +6170,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1935</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6521,7 +6211,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1935</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6560,7 +6252,9 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1935</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6599,7 +6293,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1935</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6638,7 +6334,9 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1935</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6677,7 +6375,9 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1935</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6716,7 +6416,9 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1935</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6755,7 +6457,9 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1935</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6794,7 +6498,9 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1935</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6833,7 +6539,9 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1935</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6872,7 +6580,9 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1935</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6911,7 +6621,9 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1935</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6950,7 +6662,9 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1935</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6989,7 +6703,9 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1935</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7028,7 +6744,9 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1935</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7067,7 +6785,9 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1935</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7106,7 +6826,9 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1935</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7145,7 +6867,9 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1935</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7184,7 +6908,9 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1935</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7223,7 +6949,9 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1935</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7262,7 +6990,9 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1935</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7301,7 +7031,9 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1935</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7340,7 +7072,9 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1935</v>
+      </c>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7379,7 +7113,9 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1935</v>
+      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7418,7 +7154,9 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1935</v>
+      </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7457,7 +7195,9 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1935</v>
+      </c>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7496,7 +7236,9 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1935</v>
+      </c>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7535,7 +7277,9 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1935</v>
+      </c>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7574,7 +7318,9 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1935</v>
+      </c>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7613,7 +7359,9 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1935</v>
+      </c>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7652,7 +7400,9 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1935</v>
+      </c>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7691,7 +7441,9 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1935</v>
+      </c>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7730,7 +7482,9 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1935</v>
+      </c>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7769,7 +7523,9 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1935</v>
+      </c>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7808,7 +7564,9 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1935</v>
+      </c>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7847,7 +7605,9 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1935</v>
+      </c>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7886,7 +7646,9 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1935</v>
+      </c>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7925,7 +7687,9 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1935</v>
+      </c>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7964,7 +7728,9 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1935</v>
+      </c>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8000,50 +7766,60 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1935</v>
+      </c>
       <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1990</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1989</v>
+      </c>
+      <c r="F193" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1959.483333333333</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1935</v>
+      </c>
+      <c r="L193" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>1989</v>
-      </c>
-      <c r="C193" t="n">
-        <v>1990</v>
-      </c>
-      <c r="D193" t="n">
-        <v>1990</v>
-      </c>
-      <c r="E193" t="n">
-        <v>1989</v>
-      </c>
-      <c r="F193" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G193" t="n">
-        <v>1959.483333333333</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>1</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
-        <v>1</v>
+        <v>1.023423772609819</v>
       </c>
     </row>
     <row r="194">
@@ -8072,7 +7848,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
@@ -19164,13 +18940,17 @@
         <v>1960.466666666667</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
       </c>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>1943</v>
+      </c>
+      <c r="K511" t="n">
+        <v>1943</v>
+      </c>
       <c r="L511" t="inlineStr"/>
       <c r="M511" t="n">
         <v>1</v>
@@ -19199,14 +18979,22 @@
         <v>1960.183333333333</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
       </c>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>1943</v>
+      </c>
+      <c r="K512" t="n">
+        <v>1943</v>
+      </c>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -19234,14 +19022,22 @@
         <v>1959.916666666667</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
       </c>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>1943</v>
+      </c>
+      <c r="K513" t="n">
+        <v>1943</v>
+      </c>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -19269,13 +19065,17 @@
         <v>1959.533333333333</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
       </c>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>1944</v>
+      </c>
+      <c r="K514" t="n">
+        <v>1944</v>
+      </c>
       <c r="L514" t="inlineStr"/>
       <c r="M514" t="n">
         <v>1</v>
@@ -19304,14 +19104,22 @@
         <v>1959.1</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
       </c>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>1943</v>
+      </c>
+      <c r="K515" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -19345,8 +19153,14 @@
         <v>0</v>
       </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr"/>
+      <c r="K516" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -19380,8 +19194,14 @@
         <v>0</v>
       </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr"/>
+      <c r="K517" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -19415,8 +19235,14 @@
         <v>0</v>
       </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr"/>
+      <c r="K518" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -19450,8 +19276,14 @@
         <v>0</v>
       </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr"/>
+      <c r="K519" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -19485,8 +19317,14 @@
         <v>0</v>
       </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr"/>
+      <c r="K520" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -19520,8 +19358,14 @@
         <v>0</v>
       </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr"/>
+      <c r="K521" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -19555,8 +19399,14 @@
         <v>0</v>
       </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr"/>
+      <c r="K522" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -19590,8 +19440,14 @@
         <v>0</v>
       </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr"/>
+      <c r="K523" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -19625,8 +19481,14 @@
         <v>0</v>
       </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr"/>
+      <c r="K524" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -19660,8 +19522,14 @@
         <v>0</v>
       </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr"/>
+      <c r="K525" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -19695,8 +19563,14 @@
         <v>0</v>
       </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr"/>
+      <c r="K526" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -19730,8 +19604,14 @@
         <v>0</v>
       </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr"/>
+      <c r="K527" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -19765,8 +19645,14 @@
         <v>0</v>
       </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr"/>
+      <c r="K528" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -19800,8 +19686,14 @@
         <v>0</v>
       </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr"/>
+      <c r="K529" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -19835,8 +19727,14 @@
         <v>0</v>
       </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr"/>
+      <c r="K530" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -19870,8 +19768,14 @@
         <v>0</v>
       </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
+      <c r="K531" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -19905,8 +19809,14 @@
         <v>0</v>
       </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
+      <c r="K532" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -19940,8 +19850,14 @@
         <v>0</v>
       </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
+      <c r="K533" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -19975,8 +19891,14 @@
         <v>0</v>
       </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr"/>
+      <c r="K534" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -20010,8 +19932,14 @@
         <v>0</v>
       </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr"/>
+      <c r="K535" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -20045,8 +19973,14 @@
         <v>0</v>
       </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr"/>
+      <c r="K536" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -20080,8 +20014,14 @@
         <v>0</v>
       </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr"/>
+      <c r="K537" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -20115,8 +20055,14 @@
         <v>0</v>
       </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr"/>
+      <c r="K538" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -20150,8 +20096,14 @@
         <v>0</v>
       </c>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr"/>
+      <c r="K539" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -20185,8 +20137,14 @@
         <v>0</v>
       </c>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr"/>
+      <c r="K540" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -20220,8 +20178,14 @@
         <v>0</v>
       </c>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr"/>
+      <c r="K541" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -20255,8 +20219,14 @@
         <v>0</v>
       </c>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr"/>
+      <c r="K542" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -20290,8 +20260,14 @@
         <v>0</v>
       </c>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr"/>
+      <c r="K543" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -20325,8 +20301,14 @@
         <v>0</v>
       </c>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
+      <c r="K544" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -20360,8 +20342,14 @@
         <v>0</v>
       </c>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
+      <c r="K545" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -20395,8 +20383,14 @@
         <v>0</v>
       </c>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
+      <c r="K546" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -20430,8 +20424,14 @@
         <v>0</v>
       </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
+      <c r="K547" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -20465,8 +20465,14 @@
         <v>0</v>
       </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
+      <c r="K548" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -20500,8 +20506,14 @@
         <v>0</v>
       </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr"/>
+      <c r="K549" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -20535,8 +20547,14 @@
         <v>0</v>
       </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr"/>
+      <c r="K550" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -20570,8 +20588,14 @@
         <v>0</v>
       </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
+      <c r="K551" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -20605,8 +20629,14 @@
         <v>0</v>
       </c>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
+      <c r="K552" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -20640,8 +20670,14 @@
         <v>0</v>
       </c>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr"/>
+      <c r="K553" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -20675,8 +20711,14 @@
         <v>0</v>
       </c>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr"/>
+      <c r="K554" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -20710,8 +20752,14 @@
         <v>0</v>
       </c>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr"/>
+      <c r="K555" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -20745,8 +20793,14 @@
         <v>0</v>
       </c>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
+      <c r="K556" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -20780,8 +20834,14 @@
         <v>0</v>
       </c>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr"/>
+      <c r="K557" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -20815,8 +20875,14 @@
         <v>0</v>
       </c>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr"/>
+      <c r="K558" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -20850,8 +20916,14 @@
         <v>0</v>
       </c>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr"/>
+      <c r="K559" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -20885,8 +20957,14 @@
         <v>0</v>
       </c>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr"/>
+      <c r="K560" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -20920,8 +20998,14 @@
         <v>0</v>
       </c>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="K561" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -20955,8 +21039,14 @@
         <v>0</v>
       </c>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
+      <c r="K562" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-12 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-12 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1441,11 +1441,17 @@
         <v>-21128.06350000001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1907</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1480,17 @@
         <v>-21124.06350000001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1910</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1519,17 @@
         <v>-21147.56350000001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1911</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1558,17 @@
         <v>-21179.48350000001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1908</v>
+      </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1597,17 @@
         <v>-19619.52050000001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1906</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1636,17 @@
         <v>-19619.52050000001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1908</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,15 +1675,17 @@
         <v>-19579.52050000001</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>1908</v>
       </c>
-      <c r="J38" t="n">
-        <v>1908</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,17 +1714,15 @@
         <v>-19665.17340000001</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>1916</v>
       </c>
-      <c r="J39" t="n">
-        <v>1908</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -1717,17 +1753,15 @@
         <v>-19622.32390000001</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>1911</v>
       </c>
-      <c r="J40" t="n">
-        <v>1908</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -1758,15 +1792,17 @@
         <v>-19367.01140000001</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>1912</v>
       </c>
-      <c r="J41" t="n">
-        <v>1912</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1795,17 +1831,15 @@
         <v>-19336.37990000001</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>1917</v>
       </c>
-      <c r="J42" t="n">
-        <v>1912</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -1836,15 +1870,15 @@
         <v>-19115.63150000001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>1912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1925</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -1879,7 +1913,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1912,7 +1950,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1945,7 +1987,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1978,7 +2024,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2011,7 +2061,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2044,7 +2098,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2077,7 +2135,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2110,7 +2172,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2143,7 +2209,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2176,7 +2246,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2209,7 +2283,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2242,7 +2320,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2275,7 +2357,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2308,7 +2394,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2341,7 +2431,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2374,7 +2468,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2407,7 +2505,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2440,7 +2542,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2473,7 +2579,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2506,7 +2616,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2539,7 +2653,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2572,7 +2690,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2605,7 +2727,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2638,7 +2764,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2671,7 +2801,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2704,7 +2838,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2737,7 +2875,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2770,7 +2912,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2803,7 +2949,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2836,7 +2986,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2869,7 +3023,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2902,7 +3060,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2935,7 +3097,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2968,7 +3134,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3001,7 +3171,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3034,7 +3208,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3067,7 +3245,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3100,7 +3282,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3133,7 +3319,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3166,7 +3356,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3199,7 +3393,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3232,7 +3430,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3265,7 +3467,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3298,7 +3504,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3331,7 +3541,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3364,7 +3578,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3397,7 +3615,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3430,7 +3652,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3463,7 +3689,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3496,7 +3726,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3529,7 +3763,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3562,7 +3800,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3595,7 +3837,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3628,7 +3874,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3661,7 +3911,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3694,7 +3948,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3727,7 +3985,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3760,7 +4022,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3793,7 +4059,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3826,7 +4096,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3855,11 +4129,15 @@
         <v>2531.959299999988</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3892,7 +4170,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3925,7 +4207,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3958,7 +4244,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3991,7 +4281,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4024,7 +4318,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4057,7 +4355,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4090,7 +4392,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4123,7 +4429,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4156,7 +4466,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4189,7 +4503,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4222,7 +4540,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4255,7 +4577,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4288,7 +4614,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4321,7 +4651,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4354,7 +4688,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4387,7 +4725,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4420,7 +4762,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4453,7 +4799,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4486,7 +4836,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4519,7 +4873,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4552,7 +4910,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4585,7 +4947,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4618,7 +4984,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4651,7 +5021,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4684,7 +5058,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4717,7 +5095,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4750,7 +5132,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4783,7 +5169,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4816,7 +5206,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4849,7 +5243,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4882,7 +5280,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4915,7 +5317,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4948,7 +5354,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4981,7 +5391,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5014,7 +5428,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5047,7 +5465,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5080,7 +5502,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5113,7 +5539,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5146,7 +5576,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5179,7 +5613,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5212,7 +5650,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5245,7 +5687,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5278,7 +5724,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5311,7 +5761,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5344,7 +5798,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5377,7 +5835,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5410,7 +5872,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5443,7 +5909,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5476,7 +5946,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5509,7 +5983,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5542,7 +6020,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5575,7 +6057,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5608,7 +6094,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5641,7 +6131,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5674,7 +6168,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5707,7 +6205,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5740,7 +6242,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5773,7 +6279,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5806,7 +6316,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5839,7 +6353,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5872,7 +6390,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5905,7 +6427,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5938,7 +6464,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5971,7 +6501,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6004,7 +6538,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6037,7 +6575,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6070,7 +6612,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6103,7 +6649,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6136,7 +6686,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6169,7 +6723,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6202,7 +6760,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6235,7 +6797,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6268,7 +6834,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6301,7 +6871,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6334,7 +6908,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6367,7 +6945,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6400,7 +6982,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6433,7 +7019,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6466,7 +7056,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6499,7 +7093,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6532,7 +7130,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6565,7 +7167,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6598,7 +7204,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6631,7 +7241,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6664,7 +7278,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6697,7 +7315,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6730,7 +7352,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6763,7 +7389,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6796,7 +7426,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6829,7 +7463,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6862,7 +7500,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6895,7 +7537,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6928,7 +7574,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6961,7 +7611,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6994,7 +7648,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7027,7 +7685,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7060,7 +7722,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7093,7 +7759,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7126,7 +7796,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7159,7 +7833,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7192,7 +7870,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7225,7 +7907,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7258,7 +7944,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7291,7 +7981,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7324,7 +8018,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7357,7 +8055,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7390,7 +8092,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7423,7 +8129,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7456,7 +8166,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7489,7 +8203,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7522,7 +8240,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7555,7 +8277,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7588,7 +8314,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7621,7 +8351,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7654,7 +8388,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7687,7 +8425,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7720,7 +8462,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7753,7 +8499,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7782,11 +8532,15 @@
         <v>8951.679463099985</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7815,11 +8569,15 @@
         <v>9813.427663099985</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7848,11 +8606,15 @@
         <v>7903.908563099985</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7881,11 +8643,15 @@
         <v>7666.875663099985</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7914,11 +8680,15 @@
         <v>8340.112563099985</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7947,11 +8717,15 @@
         <v>8840.112563099985</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7984,7 +8758,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8017,7 +8795,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8050,7 +8832,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8083,7 +8869,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8116,7 +8906,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8149,7 +8943,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8182,7 +8980,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8215,7 +9017,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8248,7 +9054,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8281,7 +9091,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8310,11 +9124,15 @@
         <v>11800.96096309998</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8343,11 +9161,15 @@
         <v>11800.96096309998</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8376,11 +9198,15 @@
         <v>11739.58996309998</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8413,7 +9239,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8446,7 +9276,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8479,7 +9313,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8512,7 +9350,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8545,7 +9387,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8578,7 +9424,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8611,7 +9461,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8640,11 +9494,15 @@
         <v>18983.77166309999</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8677,7 +9535,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8710,7 +9572,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8743,7 +9609,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8776,7 +9646,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8805,11 +9679,15 @@
         <v>23265.87476309998</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8842,7 +9720,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8875,7 +9757,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8904,11 +9790,15 @@
         <v>22406.17336309998</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8937,11 +9827,15 @@
         <v>22909.66596309998</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8970,11 +9864,15 @@
         <v>24280.35766309998</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9003,11 +9901,15 @@
         <v>26113.51926309998</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9036,14 +9938,16 @@
         <v>25897.75496309998</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
@@ -9069,7 +9973,7 @@
         <v>25410.12296309998</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9102,7 +10006,7 @@
         <v>25443.11966309998</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9135,7 +10039,7 @@
         <v>23785.69913989998</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9168,7 +10072,7 @@
         <v>23788.07303989998</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9201,7 +10105,7 @@
         <v>23788.07303989998</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9234,7 +10138,7 @@
         <v>20349.49363989998</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9267,7 +10171,7 @@
         <v>19875.90263989998</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9300,7 +10204,7 @@
         <v>17497.61113989998</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9333,7 +10237,7 @@
         <v>17497.61113989998</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9366,7 +10270,7 @@
         <v>17114.67983989998</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9399,7 +10303,7 @@
         <v>17140.47513989998</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9432,7 +10336,7 @@
         <v>17140.47513989998</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9465,7 +10369,7 @@
         <v>16617.20863989998</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9498,7 +10402,7 @@
         <v>16266.33163989998</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9531,7 +10435,7 @@
         <v>14752.71403989998</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9564,7 +10468,7 @@
         <v>11181.53003989998</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9597,7 +10501,7 @@
         <v>12099.26283989998</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9630,7 +10534,7 @@
         <v>10482.56883989998</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9663,7 +10567,7 @@
         <v>10819.24213989998</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9696,7 +10600,7 @@
         <v>10914.07093989998</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9927,7 +10831,7 @@
         <v>7014.912839899983</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9960,7 +10864,7 @@
         <v>7014.912839899983</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9993,7 +10897,7 @@
         <v>1834.585439899983</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10026,7 +10930,7 @@
         <v>-902.2196601000173</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10059,7 +10963,7 @@
         <v>-902.2196601000173</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10092,7 +10996,7 @@
         <v>-902.2196601000173</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10125,7 +11029,7 @@
         <v>1143.780339899983</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10158,7 +11062,7 @@
         <v>-1292.339860100017</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10191,7 +11095,7 @@
         <v>-1072.135060100017</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10224,7 +11128,7 @@
         <v>-50.86186711001722</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10257,7 +11161,7 @@
         <v>-50.86186711001722</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10290,7 +11194,7 @@
         <v>-50.86186711001722</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10323,7 +11227,7 @@
         <v>-168.1618671100172</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10356,7 +11260,7 @@
         <v>-172.7053671100172</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10389,7 +11293,7 @@
         <v>449.2863545099828</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10422,7 +11326,7 @@
         <v>349.2863545099828</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10455,7 +11359,7 @@
         <v>941.2507545099827</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10488,7 +11392,7 @@
         <v>6578.188754509983</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10521,7 +11425,7 @@
         <v>4528.988754509983</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10620,7 +11524,7 @@
         <v>2582.094754509983</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10653,7 +11557,7 @@
         <v>-2288.634545490017</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10686,7 +11590,7 @@
         <v>-2288.634545490017</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12435,7 +13339,7 @@
         <v>7961.918759879983</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12468,7 +13372,7 @@
         <v>7924.494759879983</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12501,7 +13405,7 @@
         <v>7924.494759879983</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12534,7 +13438,7 @@
         <v>7924.494759879983</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12567,7 +13471,7 @@
         <v>7924.494759879983</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12600,7 +13504,7 @@
         <v>7924.494759879983</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12666,7 +13570,7 @@
         <v>9266.926759879983</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12699,7 +13603,7 @@
         <v>9266.926759879983</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13524,7 +14428,7 @@
         <v>7144.063217479984</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13557,7 +14461,7 @@
         <v>7144.063217479984</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13590,7 +14494,7 @@
         <v>7144.063217479984</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13623,7 +14527,7 @@
         <v>7144.063217479984</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13656,7 +14560,7 @@
         <v>7768.901617479984</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15900,7 +16804,7 @@
         <v>-8044.187427560015</v>
       </c>
       <c r="H469" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15933,7 +16837,7 @@
         <v>-8044.187427560015</v>
       </c>
       <c r="H470" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15966,7 +16870,7 @@
         <v>-6213.537827560015</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15999,7 +16903,7 @@
         <v>-7364.095527560015</v>
       </c>
       <c r="H472" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17847,7 +18751,7 @@
         <v>-5784.732296620015</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17946,7 +18850,7 @@
         <v>1847.037903379985</v>
       </c>
       <c r="H531" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17979,7 +18883,7 @@
         <v>2300.678903379985</v>
       </c>
       <c r="H532" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -20883,7 +21787,7 @@
         <v>7040.960103379984</v>
       </c>
       <c r="H620" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20916,7 +21820,7 @@
         <v>8358.127103379984</v>
       </c>
       <c r="H621" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20949,7 +21853,7 @@
         <v>8358.127103379984</v>
       </c>
       <c r="H622" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20982,7 +21886,7 @@
         <v>8244.727103379984</v>
       </c>
       <c r="H623" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -21015,7 +21919,7 @@
         <v>7883.359203379984</v>
       </c>
       <c r="H624" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21048,7 +21952,7 @@
         <v>17435.23370337998</v>
       </c>
       <c r="H625" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21081,7 +21985,7 @@
         <v>17435.23370337998</v>
       </c>
       <c r="H626" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21114,7 +22018,7 @@
         <v>18772.73960337999</v>
       </c>
       <c r="H627" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21147,7 +22051,7 @@
         <v>18407.89120337999</v>
       </c>
       <c r="H628" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21180,7 +22084,7 @@
         <v>18186.51190337999</v>
       </c>
       <c r="H629" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21213,7 +22117,7 @@
         <v>13556.32100337999</v>
       </c>
       <c r="H630" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21246,7 +22150,7 @@
         <v>15323.11170337999</v>
       </c>
       <c r="H631" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21257,6 +22161,6 @@
       <c r="M631" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-12 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1441,17 +1441,11 @@
         <v>-21128.06350000001</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1907</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1480,17 +1474,11 @@
         <v>-21124.06350000001</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1910</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1519,17 +1507,11 @@
         <v>-21147.56350000001</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1911</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1566,7 +1548,7 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -1831,11 +1813,9 @@
         <v>-19336.37990000001</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1917</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -1870,11 +1850,9 @@
         <v>-19115.63150000001</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1925</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -3241,18 +3219,16 @@
         <v>979.5862999999886</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
@@ -3278,15 +3254,11 @@
         <v>686.1533999999886</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3315,15 +3287,11 @@
         <v>686.1533999999886</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3352,15 +3320,11 @@
         <v>936.1533999999886</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3389,15 +3353,11 @@
         <v>1136.153399999989</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3426,15 +3386,11 @@
         <v>702.6577999999886</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3463,15 +3419,11 @@
         <v>658.3477999999886</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3500,15 +3452,11 @@
         <v>576.1477999999886</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3537,15 +3485,11 @@
         <v>763.9477999999885</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3574,15 +3518,11 @@
         <v>1083.847799999989</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3611,15 +3551,11 @@
         <v>1895.342199999989</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3588,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3689,11 +3621,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3726,11 +3654,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3763,11 +3687,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3800,11 +3720,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3837,11 +3753,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3874,11 +3786,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3911,11 +3819,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3948,11 +3852,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3985,11 +3885,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4022,11 +3918,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4059,11 +3951,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4096,11 +3984,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4133,11 +4017,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4170,11 +4050,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4207,11 +4083,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4244,11 +4116,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4281,11 +4149,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4318,11 +4182,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4355,11 +4215,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4392,11 +4248,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4429,11 +4281,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4466,11 +4314,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4503,11 +4347,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4540,11 +4380,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4577,11 +4413,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4614,11 +4446,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4651,11 +4479,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4688,11 +4512,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4725,11 +4545,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4762,11 +4578,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4799,11 +4611,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4836,11 +4644,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4873,11 +4677,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4910,11 +4710,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4947,11 +4743,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4984,11 +4776,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5021,11 +4809,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5058,11 +4842,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5095,11 +4875,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5132,11 +4908,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5169,11 +4941,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5206,11 +4974,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5243,11 +5007,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5280,11 +5040,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5317,11 +5073,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5354,11 +5106,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5391,11 +5139,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5428,11 +5172,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5465,11 +5205,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5502,11 +5238,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5539,11 +5271,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5576,11 +5304,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5613,11 +5337,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5650,11 +5370,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5687,11 +5403,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5724,11 +5436,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5761,11 +5469,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5798,11 +5502,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5835,11 +5535,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5872,11 +5568,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5909,11 +5601,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5946,11 +5634,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5983,11 +5667,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6020,11 +5700,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6057,11 +5733,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6094,11 +5766,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6131,11 +5799,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6168,11 +5832,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6205,11 +5865,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6242,11 +5898,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6279,11 +5931,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6316,11 +5964,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6353,11 +5997,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6390,11 +6030,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6427,11 +6063,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6464,11 +6096,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6501,11 +6129,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6538,11 +6162,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6575,11 +6195,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6612,11 +6228,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6649,11 +6261,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6686,11 +6294,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6723,11 +6327,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6760,11 +6360,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6797,11 +6393,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6834,11 +6426,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6871,11 +6459,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6908,11 +6492,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6945,11 +6525,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6982,11 +6558,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7019,11 +6591,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7056,11 +6624,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7093,11 +6657,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7130,11 +6690,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7167,11 +6723,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7204,11 +6756,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7241,11 +6789,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7278,11 +6822,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7315,11 +6855,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7352,11 +6888,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7389,11 +6921,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7426,11 +6954,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7463,11 +6987,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7500,11 +7020,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7537,11 +7053,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7574,11 +7086,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7611,11 +7119,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7648,11 +7152,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7685,11 +7185,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7722,11 +7218,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7759,11 +7251,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7796,11 +7284,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7833,11 +7317,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7870,11 +7350,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7907,11 +7383,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7944,11 +7416,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7981,11 +7449,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8018,11 +7482,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8055,11 +7515,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8092,11 +7548,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8129,11 +7581,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8166,11 +7614,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8203,11 +7647,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8240,11 +7680,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8277,11 +7713,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8310,15 +7742,11 @@
         <v>180.7419630999858</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8351,11 +7779,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8384,15 +7808,11 @@
         <v>180.7419630999858</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8425,11 +7845,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8462,11 +7878,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8499,11 +7911,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8536,11 +7944,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8569,15 +7973,11 @@
         <v>9813.427663099985</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8606,15 +8006,11 @@
         <v>7903.908563099985</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8647,11 +8043,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8684,11 +8076,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8721,11 +8109,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8758,11 +8142,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8795,11 +8175,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8832,11 +8208,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8869,11 +8241,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8906,11 +8274,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8943,11 +8307,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8980,11 +8340,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9017,11 +8373,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9054,11 +8406,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9091,11 +8439,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9128,11 +8472,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9165,11 +8505,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9202,11 +8538,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9239,11 +8571,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9276,11 +8604,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9313,11 +8637,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9350,11 +8670,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9387,11 +8703,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9424,11 +8736,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9461,11 +8769,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9498,11 +8802,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9535,11 +8835,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9572,11 +8868,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9609,11 +8901,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9646,11 +8934,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9683,11 +8967,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9720,11 +9000,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9757,11 +9033,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9794,11 +9066,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9831,11 +9099,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9868,11 +9132,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9905,11 +9165,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9938,16 +9194,14 @@
         <v>25897.75496309998</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
       <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
@@ -9973,7 +9227,7 @@
         <v>25410.12296309998</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10006,7 +9260,7 @@
         <v>25443.11966309998</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10039,7 +9293,7 @@
         <v>23785.69913989998</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10072,7 +9326,7 @@
         <v>23788.07303989998</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10105,7 +9359,7 @@
         <v>23788.07303989998</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10138,7 +9392,7 @@
         <v>20349.49363989998</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10171,7 +9425,7 @@
         <v>19875.90263989998</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10204,7 +9458,7 @@
         <v>17497.61113989998</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10237,7 +9491,7 @@
         <v>17497.61113989998</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10270,7 +9524,7 @@
         <v>17114.67983989998</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10303,7 +9557,7 @@
         <v>17140.47513989998</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10336,7 +9590,7 @@
         <v>17140.47513989998</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10369,7 +9623,7 @@
         <v>16617.20863989998</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10402,7 +9656,7 @@
         <v>16266.33163989998</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10435,7 +9689,7 @@
         <v>14752.71403989998</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10468,7 +9722,7 @@
         <v>11181.53003989998</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10501,7 +9755,7 @@
         <v>12099.26283989998</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10534,7 +9788,7 @@
         <v>10482.56883989998</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10567,7 +9821,7 @@
         <v>10819.24213989998</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10600,7 +9854,7 @@
         <v>10914.07093989998</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10831,7 +10085,7 @@
         <v>7014.912839899983</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10897,7 +10151,7 @@
         <v>1834.585439899983</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10930,7 +10184,7 @@
         <v>-902.2196601000173</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10963,7 +10217,7 @@
         <v>-902.2196601000173</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10996,7 +10250,7 @@
         <v>-902.2196601000173</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11029,7 +10283,7 @@
         <v>1143.780339899983</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11062,7 +10316,7 @@
         <v>-1292.339860100017</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11095,7 +10349,7 @@
         <v>-1072.135060100017</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11128,7 +10382,7 @@
         <v>-50.86186711001722</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11161,7 +10415,7 @@
         <v>-50.86186711001722</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11194,7 +10448,7 @@
         <v>-50.86186711001722</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11227,7 +10481,7 @@
         <v>-168.1618671100172</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11260,7 +10514,7 @@
         <v>-172.7053671100172</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -22161,6 +21415,6 @@
       <c r="M631" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-12 BackTest QTUM.xlsx
@@ -1474,10 +1474,14 @@
         <v>-21124.06350000001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1910</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1910</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
@@ -1507,11 +1511,19 @@
         <v>-21147.56350000001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1911</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1545,7 +1557,9 @@
       <c r="I35" t="n">
         <v>1908</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1910</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -1584,7 +1598,9 @@
       <c r="I36" t="n">
         <v>1906</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1910</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1623,7 +1639,9 @@
       <c r="I37" t="n">
         <v>1908</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1910</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1662,7 +1680,9 @@
       <c r="I38" t="n">
         <v>1908</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1910</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1701,7 +1721,9 @@
       <c r="I39" t="n">
         <v>1916</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1910</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1740,7 +1762,9 @@
       <c r="I40" t="n">
         <v>1911</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1910</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1779,7 +1803,9 @@
       <c r="I41" t="n">
         <v>1912</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1910</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1813,10 +1839,14 @@
         <v>-19336.37990000001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1917</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1910</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1850,10 +1880,14 @@
         <v>-19115.63150000001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1925</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1910</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1890,7 +1924,9 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1910</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1927,7 +1963,9 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1910</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1964,7 +2002,9 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1910</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2001,7 +2041,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1910</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2038,7 +2080,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1910</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2075,7 +2119,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1910</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2112,7 +2158,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1910</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2149,7 +2197,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1910</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2186,7 +2236,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1910</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2223,7 +2275,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1910</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2260,7 +2314,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1910</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2297,7 +2353,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1910</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2334,7 +2392,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1910</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2371,7 +2431,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1910</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2408,7 +2470,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1910</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2445,7 +2509,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1910</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2482,7 +2548,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1910</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2519,7 +2587,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1910</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2556,7 +2626,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1910</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2593,7 +2665,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1910</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2630,7 +2704,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1910</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2667,7 +2743,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1910</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2704,7 +2782,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1910</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2741,7 +2821,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1910</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2778,7 +2860,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1910</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2815,7 +2899,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1910</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2852,7 +2938,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1910</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2889,7 +2977,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1910</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2926,7 +3016,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1910</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2963,7 +3055,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1910</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3000,7 +3094,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1910</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3037,7 +3133,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1910</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3074,7 +3172,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1910</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3111,7 +3211,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1910</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3148,7 +3250,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1910</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3185,7 +3289,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1910</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3219,16 +3325,20 @@
         <v>979.5862999999886</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1910</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
       <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
@@ -3254,11 +3364,17 @@
         <v>686.1533999999886</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3287,11 +3403,17 @@
         <v>686.1533999999886</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3320,11 +3442,17 @@
         <v>936.1533999999886</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3353,11 +3481,17 @@
         <v>1136.153399999989</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3386,11 +3520,17 @@
         <v>702.6577999999886</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3419,11 +3559,17 @@
         <v>658.3477999999886</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3452,11 +3598,17 @@
         <v>576.1477999999886</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3485,11 +3637,17 @@
         <v>763.9477999999885</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3518,11 +3676,17 @@
         <v>1083.847799999989</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3551,11 +3715,17 @@
         <v>1895.342199999989</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3587,8 +3757,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3620,8 +3796,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3653,8 +3835,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3686,8 +3874,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3719,8 +3913,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3752,8 +3952,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3785,8 +3991,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3818,8 +4030,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3851,8 +4069,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3884,8 +4108,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3917,8 +4147,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3950,8 +4186,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3983,8 +4225,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4016,8 +4264,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4049,8 +4303,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4082,8 +4342,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4115,8 +4381,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4148,8 +4420,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4181,8 +4459,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4214,8 +4498,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4247,8 +4537,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4280,8 +4576,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4313,8 +4615,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4346,8 +4654,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4379,8 +4693,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4412,8 +4732,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4445,8 +4771,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4478,8 +4810,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4511,8 +4849,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4544,8 +4888,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4577,8 +4927,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4610,8 +4966,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4643,8 +5005,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4676,8 +5044,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4709,8 +5083,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4742,8 +5122,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4775,8 +5161,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4808,8 +5200,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4841,8 +5239,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4874,8 +5278,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4907,8 +5317,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4940,8 +5356,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4973,8 +5395,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5006,8 +5434,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5039,8 +5473,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5072,8 +5512,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5105,8 +5551,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5138,8 +5590,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5171,8 +5629,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5204,8 +5668,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5237,8 +5707,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5270,8 +5746,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5303,8 +5785,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5336,8 +5824,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5369,8 +5863,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5402,8 +5902,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5435,8 +5941,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5468,8 +5980,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5501,8 +6019,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5534,8 +6058,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5567,8 +6097,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5600,8 +6136,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5633,8 +6175,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5666,8 +6214,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5699,8 +6253,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5732,8 +6292,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5765,8 +6331,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5798,8 +6370,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5831,8 +6409,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5864,8 +6448,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5897,8 +6487,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5930,8 +6526,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5963,8 +6565,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5996,8 +6604,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6029,8 +6643,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6062,8 +6682,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6095,8 +6721,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6128,8 +6760,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6161,8 +6799,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6194,8 +6838,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6227,8 +6877,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6260,8 +6916,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6293,8 +6955,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6326,8 +6994,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6359,8 +7033,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6392,8 +7072,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6425,8 +7111,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6458,8 +7150,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6491,8 +7189,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6524,8 +7228,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6557,8 +7267,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6590,8 +7306,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6623,8 +7345,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6656,8 +7384,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6689,8 +7423,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6722,8 +7462,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6755,8 +7501,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6788,8 +7540,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6821,8 +7579,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6854,8 +7618,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6887,8 +7657,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6920,8 +7696,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6953,8 +7735,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6986,8 +7774,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7019,8 +7813,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7052,8 +7852,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7085,8 +7891,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7118,8 +7930,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7151,8 +7969,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7184,8 +8008,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7217,8 +8047,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7250,8 +8086,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7283,8 +8125,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7316,8 +8164,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7349,8 +8203,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7382,8 +8242,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7415,8 +8281,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7448,8 +8320,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7481,8 +8359,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7514,8 +8398,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7547,8 +8437,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7580,8 +8476,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7613,8 +8515,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7646,8 +8554,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7679,8 +8593,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7712,8 +8632,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7742,11 +8668,17 @@
         <v>180.7419630999858</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7778,8 +8710,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7808,11 +8746,17 @@
         <v>180.7419630999858</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7844,8 +8788,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7877,8 +8827,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7910,8 +8866,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7943,8 +8905,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7973,11 +8941,17 @@
         <v>9813.427663099985</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8006,11 +8980,17 @@
         <v>7903.908563099985</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8042,8 +9022,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8075,8 +9061,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8108,8 +9100,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8141,8 +9139,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8174,8 +9178,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8207,8 +9217,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8240,8 +9256,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8273,8 +9295,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8306,8 +9334,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8339,8 +9373,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8372,8 +9412,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8405,8 +9451,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8438,8 +9490,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8471,8 +9529,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8504,8 +9568,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8537,8 +9607,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8570,8 +9646,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8603,8 +9685,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8636,8 +9724,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8669,8 +9763,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8702,8 +9802,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8735,8 +9841,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8768,8 +9880,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8801,8 +9919,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8834,8 +9958,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8864,13 +9994,19 @@
         <v>29843.45086309998</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L251" t="n">
-        <v>1</v>
+        <v>1.035837696335079</v>
       </c>
       <c r="M251" t="inlineStr"/>
     </row>
@@ -8897,7 +10033,7 @@
         <v>34843.45086309998</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8930,7 +10066,7 @@
         <v>39009.45556309998</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8963,7 +10099,7 @@
         <v>23265.87476309998</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8996,7 +10132,7 @@
         <v>23298.87146309998</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9029,7 +10165,7 @@
         <v>23652.78376309998</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9062,7 +10198,7 @@
         <v>22406.17336309998</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9095,7 +10231,7 @@
         <v>22909.66596309998</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9128,7 +10264,7 @@
         <v>24280.35766309998</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9161,7 +10297,7 @@
         <v>26113.51926309998</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9194,7 +10330,7 @@
         <v>25897.75496309998</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9227,7 +10363,7 @@
         <v>25410.12296309998</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9260,7 +10396,7 @@
         <v>25443.11966309998</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9293,7 +10429,7 @@
         <v>23785.69913989998</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9326,7 +10462,7 @@
         <v>23788.07303989998</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9359,7 +10495,7 @@
         <v>23788.07303989998</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9392,7 +10528,7 @@
         <v>20349.49363989998</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9425,7 +10561,7 @@
         <v>19875.90263989998</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9458,7 +10594,7 @@
         <v>17497.61113989998</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9491,7 +10627,7 @@
         <v>17497.61113989998</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9524,7 +10660,7 @@
         <v>17114.67983989998</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9557,7 +10693,7 @@
         <v>17140.47513989998</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9590,7 +10726,7 @@
         <v>17140.47513989998</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9623,7 +10759,7 @@
         <v>16617.20863989998</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9656,7 +10792,7 @@
         <v>16266.33163989998</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9689,7 +10825,7 @@
         <v>14752.71403989998</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9722,7 +10858,7 @@
         <v>11181.53003989998</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
